--- a/测试日志/不改变语言的测试统计.xlsx
+++ b/测试日志/不改变语言的测试统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDZNH\source\repos\XidianAutomata\测试日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0042CD-4C12-42B0-A375-47CB88F337F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC37B2-6DA5-4ACB-9BE5-4AA7070E1ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{8F7BFE9E-9C4A-4D34-97A2-F4509A5ACB35}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
